--- a/sources/tables/companies.xlsx
+++ b/sources/tables/companies.xlsx
@@ -671,12 +671,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 282 483,7</t>
+          <t>1 259 958,7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1 419 486,1</t>
+          <t>1 399 765,6</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>599 530,7</t>
+          <t>590 999,6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>698 254,4</t>
+          <t>689 156,7</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>525 961,8</t>
+          <t>517 430,7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>623 067,1</t>
+          <t>613 969,4</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>336 782,4</t>
+          <t>325 349,4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>440 257,4</t>
+          <t>428 181,2</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2 203</t>
+          <t>2 128</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 880</t>
+          <t>2 801</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>46,7  %</t>
+          <t>46,9  %</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41,0  %</t>
+          <t>41,1  %</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>26,3  %</t>
+          <t>25,8  %</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31,0  %</t>
+          <t>30,6  %</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1244,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10,98  %</t>
+          <t>9,03  %</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10,68  %</t>
+          <t>11,10  %</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0,13  %</t>
+          <t>-1,55  %</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16,47  %</t>
+          <t>16,61  %</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-7  %</t>
+          <t>-11  %</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31  %</t>
+          <t>32  %</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2827,17 +2827,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-180.6</t>
+          <t>-180.9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3486,27 +3486,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>3.7</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -3521,27 +3521,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4718,27 +4718,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -4753,27 +4753,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>

--- a/sources/tables/companies.xlsx
+++ b/sources/tables/companies.xlsx
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1073,27 +1073,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -1143,27 +1143,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -1767,17 +1767,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -1802,27 +1802,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>5.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1872,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2757,27 +2757,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -2792,27 +2792,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2827,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-180.9</t>
+          <t>-176.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -3451,22 +3451,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3486,27 +3486,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -3521,27 +3521,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -4718,27 +4718,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -4753,27 +4753,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>

--- a/sources/tables/companies.xlsx
+++ b/sources/tables/companies.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -1143,27 +1143,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -1802,22 +1802,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1837,27 +1837,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1872,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2757,22 +2757,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2792,22 +2792,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2827,22 +2827,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-176.0</t>
+          <t>-178.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1.6</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -3521,27 +3521,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>

--- a/sources/tables/companies.xlsx
+++ b/sources/tables/companies.xlsx
@@ -8,30 +8,30 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="head" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Финансовые показатели, R млн," sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Рентабельность" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Коэффициенты" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Рост" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Финансовые показатели, R млн," sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Рентабельность" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Коэффициенты" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Рост" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Финансовые показатели, R млн," sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Рентабельность" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Коэффициенты" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Рост" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Финансовые показатели, R млн," sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Рентабельность" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Коэффициенты" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Рост" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Финансовые показатели, R млн," sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Рентабельность" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Коэффициенты" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Рост" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Финансовые показатели, R млн," sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Рентабельность" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Коэффициенты" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Рост" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Финансовые показатели, R млн," sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Рентабельность" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Коэффициенты" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Рост" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Финансовые показатели, R млн," sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Рентабельность" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Коэффициенты" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Рост" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Финансовые показатели, R млн," sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Рентабельность" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Коэффициенты" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Рост" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Финансовые показатели, R млн," sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Рентабельность" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Коэффициенты" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Рост" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Финансовые показатели, R млн," sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Рентабельность" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Коэффициенты" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Рост" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Финансовые показатели, R млн," sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Рентабельность" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Коэффициенты" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Рост" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -882,27 +882,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49,3  %</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59,1  %</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>51,9  %</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>46,9  %</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>49,2  %</t>
+          <t>49.2</t>
         </is>
       </c>
     </row>
@@ -917,27 +917,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41,2  %</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53,4  %</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44,9  %</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41,1  %</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>43,9  %</t>
+          <t>43.9</t>
         </is>
       </c>
     </row>
@@ -952,27 +952,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28,0  %</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36,6  %</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31,5  %</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25,8  %</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30,6  %</t>
+          <t>30.6</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -1148,17 +1148,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1229,27 +1229,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28,09  %</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,85  %</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-12,01  %</t>
+          <t>-12.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9,03  %</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11,10  %</t>
+          <t>11.10</t>
         </is>
       </c>
     </row>
@@ -1264,27 +1264,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7,93  %</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39,91  %</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22,63  %</t>
+          <t>-22.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1,55  %</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16,61  %</t>
+          <t>16.61</t>
         </is>
       </c>
     </row>
@@ -1299,27 +1299,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3  %</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56  %</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23  %</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-11  %</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32  %</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1350,27 +1350,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>361 387,5</t>
+          <t>365 249,3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>365 249,3</t>
+          <t>291 494,5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>291 494,5</t>
+          <t>459 427,3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>459 691,2</t>
+          <t>518 542,2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>514 272,1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1420,27 +1420,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>270 281,4</t>
+          <t>260 955,4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>260 955,4</t>
+          <t>175 910,1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175 910,1</t>
+          <t>310 910,5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>299 503,0</t>
+          <t>353 802,6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>336 782,8</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1455,27 +1455,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>221 691,5</t>
+          <t>217 634,4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>217 634,4</t>
+          <t>129 964,0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>129 964,0</t>
+          <t>267 515,7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>253 124,2</t>
+          <t>302 495,4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>280 567,7</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1490,27 +1490,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>115 545,7</t>
+          <t>166 958,5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>166 958,5</t>
+          <t>106 819,7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>106 819,7</t>
+          <t>186 472,2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>175 412,1</t>
+          <t>208 336,3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>190 794,2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1525,27 +1525,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1 219</t>
+          <t>1 242</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 242</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1 371</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 290</t>
+          <t>1 532</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1 403</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1611,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>74,8  %</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71,4  %</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,3  %</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65,2  %</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>65,5  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>61,3  %</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59,6  %</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44,6  %</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55,1  %</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>54,6  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1681,27 +1681,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45,6  %</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46,3  %</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33,6  %</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38,2  %</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>37,1  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1732,27 +1732,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1767,27 +1767,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1807,22 +1807,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1872,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1923,27 +1923,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1958,27 +1958,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39,47  %</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1,07  %</t>
+          <t>-20.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20,19  %</t>
+          <t>57.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57,70  %</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11,87  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1993,27 +1993,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>56,52  %</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3,45  %</t>
+          <t>-32.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-32,59  %</t>
+          <t>76.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70,26  %</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,45  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2028,27 +2028,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52  %</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2  %</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-42  %</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79  %</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2340,27 +2340,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10,2  %</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,1  %</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14,5  %</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11,5  %</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16,3  %</t>
+          <t>16.3</t>
         </is>
       </c>
     </row>
@@ -2375,27 +2375,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,3  %</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17,3  %</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9,4  %</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5,7  %</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11,1  %</t>
+          <t>11.1</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2410,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,9  %</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26,9  %</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12,8  %</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11,2  %</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18,7  %</t>
+          <t>18.7</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2757,27 +2757,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -2792,27 +2792,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2827,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-178.3</t>
+          <t>-173.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2913,27 +2913,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1,42  %</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42,46  %</t>
+          <t>42.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8,44  %</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,05  %</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15,84  %</t>
+          <t>15.84</t>
         </is>
       </c>
     </row>
@@ -2948,27 +2948,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,77  %</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>237,95  %</t>
+          <t>237.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-34,75  %</t>
+          <t>-34.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-16,92  %</t>
+          <t>-16.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>64,10  %</t>
+          <t>64.10</t>
         </is>
       </c>
     </row>
@@ -2983,27 +2983,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-12  %</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>332  %</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-48  %</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-9  %</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94  %</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>35,3  %</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51,4  %</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31,0  %</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>35,4  %</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>37,4  %</t>
+          <t>37.4</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3330,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28,1  %</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46,3  %</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24,6  %</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29,4  %</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31,3  %</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -3365,27 +3365,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14,8  %</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35,0  %</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18,5  %</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22,0  %</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24,3  %</t>
+          <t>24.3</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3461,17 +3461,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -3486,27 +3486,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -3521,27 +3521,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -3642,27 +3642,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5,87  %</t>
+          <t>-5.87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72,36  %</t>
+          <t>72.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20,39  %</t>
+          <t>-20.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,06  %</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5,73  %</t>
+          <t>5.73</t>
         </is>
       </c>
     </row>
@@ -3677,27 +3677,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3,50  %</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151,17  %</t>
+          <t>151.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-51,96  %</t>
+          <t>-51.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20,01  %</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11,54  %</t>
+          <t>11.54</t>
         </is>
       </c>
     </row>
@@ -3712,27 +3712,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36  %</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>304  %</t>
+          <t>304</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-58  %</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25  %</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17  %</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3798,27 +3798,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>58,0  %</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50,7  %</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36,3  %</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>45,1  %</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>46,6  %</t>
+          <t>46.6</t>
         </is>
       </c>
     </row>
@@ -3833,27 +3833,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50,1  %</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41,8  %</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6,0  %</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37,5  %</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>39,4  %</t>
+          <t>39.4</t>
         </is>
       </c>
     </row>
@@ -3868,27 +3868,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>38,3  %</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32,1  %</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25,7  %</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25,4  %</t>
+          <t>25.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28,1  %</t>
+          <t>28.1</t>
         </is>
       </c>
     </row>
@@ -4145,27 +4145,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42,56  %</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,63  %</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9,79  %</t>
+          <t>-9.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47,95  %</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9,22  %</t>
+          <t>9.22</t>
         </is>
       </c>
     </row>
@@ -4180,27 +4180,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72,68  %</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-10,32  %</t>
+          <t>-10.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-35,34  %</t>
+          <t>-35.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>83,90  %</t>
+          <t>83.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,71  %</t>
+          <t>12.71</t>
         </is>
       </c>
     </row>
@@ -4215,27 +4215,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>81  %</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-14  %</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-28  %</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46  %</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20  %</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -4527,27 +4527,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23,3  %</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36,1  %</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23,4  %</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25,3  %</t>
+          <t>25.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26,5  %</t>
+          <t>26.5</t>
         </is>
       </c>
     </row>
@@ -4562,27 +4562,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,7  %</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31,6  %</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17,1  %</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17,9  %</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18,4  %</t>
+          <t>18.4</t>
         </is>
       </c>
     </row>
@@ -4597,27 +4597,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9,4  %</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26,3  %</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13,0  %</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13,1  %</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14,2  %</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4728,17 +4728,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -4753,27 +4753,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -4874,27 +4874,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5,54  %</t>
+          <t>-5.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88,84  %</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-25,36  %</t>
+          <t>-25.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11,86  %</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7,14  %</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -4909,27 +4909,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-7,21  %</t>
+          <t>-7.21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>192,56  %</t>
+          <t>192.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-51,67  %</t>
+          <t>-51.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20,77  %</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,42  %</t>
+          <t>12.42</t>
         </is>
       </c>
     </row>
@@ -4944,27 +4944,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-21  %</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>426  %</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-63  %</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12  %</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16  %</t>
+          <t>16</t>
         </is>
       </c>
     </row>

--- a/sources/tables/companies.xlsx
+++ b/sources/tables/companies.xlsx
@@ -8,30 +8,30 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="head" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Финансовые показатели, R млн," sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Рентабельность" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Коэффициенты" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="831_Рост" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Финансовые показатели, R млн," sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Рентабельность" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Коэффициенты" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="675_Рост" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Финансовые показатели, R млн," sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Рентабельность" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Коэффициенты" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="689_Рост" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Финансовые показатели, R млн," sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Рентабельность" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Коэффициенты" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="827_Рост" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Финансовые показатели, R млн," sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Рентабельность" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Коэффициенты" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="798_Рост" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Финансовые показатели, R млн," sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Рентабельность" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Коэффициенты" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="714_Рост" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Финансовые показатели, R млн," sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Рентабельность" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Коэффициенты" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полиметалл_Рост" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Финансовые показатели, R млн," sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Рентабельность" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Коэффициенты" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ММК_Рост" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Финансовые показатели, R млн," sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Рентабельность" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Коэффициенты" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Норникель_Рост" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Финансовые показатели, R млн," sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Рентабельность" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Коэффициенты" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полюс_Рост" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Финансовые показатели, R млн," sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Рентабельность" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Коэффициенты" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Русал_Рост" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Финансовые показатели, R млн," sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Рентабельность" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Коэффициенты" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Северсталь_Рост" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -882,27 +882,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49,3  %</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59,1  %</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>51,9  %</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>46,9  %</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>49,2  %</t>
+          <t>49.2</t>
         </is>
       </c>
     </row>
@@ -917,27 +917,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41,2  %</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53,4  %</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44,9  %</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41,1  %</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>43,9  %</t>
+          <t>43.9</t>
         </is>
       </c>
     </row>
@@ -952,27 +952,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28,0  %</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36,6  %</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31,5  %</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25,8  %</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30,6  %</t>
+          <t>30.6</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1048,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -1073,27 +1073,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -1143,27 +1143,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28,09  %</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,85  %</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-12,01  %</t>
+          <t>-12.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9,03  %</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11,10  %</t>
+          <t>11.10</t>
         </is>
       </c>
     </row>
@@ -1264,27 +1264,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7,93  %</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39,91  %</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22,63  %</t>
+          <t>-22.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1,55  %</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16,61  %</t>
+          <t>16.61</t>
         </is>
       </c>
     </row>
@@ -1299,27 +1299,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3  %</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56  %</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23  %</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-11  %</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32  %</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1350,27 +1350,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>361 387,5</t>
+          <t>365 249,3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>365 249,3</t>
+          <t>291 494,5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>291 494,5</t>
+          <t>469 049,6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>459 691,2</t>
+          <t>549 044,7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>514 272,1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1420,27 +1420,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>270 281,4</t>
+          <t>260 955,4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>260 955,4</t>
+          <t>175 910,1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175 910,1</t>
+          <t>319 465,7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>299 503,0</t>
+          <t>380 756,8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>336 782,8</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1455,27 +1455,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>221 691,5</t>
+          <t>217 634,4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>217 634,4</t>
+          <t>129 964,0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>129 964,0</t>
+          <t>275 162,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>253 124,2</t>
+          <t>326 439,9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>280 567,7</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1490,27 +1490,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>115 545,7</t>
+          <t>166 958,5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>166 958,5</t>
+          <t>106 819,7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>106 819,7</t>
+          <t>192 012,5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>175 412,1</t>
+          <t>225 511,9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>190 794,2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1525,27 +1525,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1 219</t>
+          <t>1 242</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 242</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 016</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 290</t>
+          <t>2 367</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1 403</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1611,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>74,8  %</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71,4  %</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,3  %</t>
+          <t>68.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65,2  %</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>65,5  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>61,3  %</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59,6  %</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44,6  %</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55,1  %</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>54,6  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1681,27 +1681,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45,6  %</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46,3  %</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33,6  %</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38,2  %</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>37,1  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1732,27 +1732,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1767,27 +1767,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1802,27 +1802,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1872,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1923,27 +1923,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2022E</t>
+          <t>2023E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2023E</t>
+          <t>2024E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024E</t>
+          <t>2025E</t>
         </is>
       </c>
     </row>
@@ -1958,27 +1958,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39,47  %</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1,07  %</t>
+          <t>-20.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20,19  %</t>
+          <t>60.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57,70  %</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11,87  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1993,27 +1993,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>56,52  %</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3,45  %</t>
+          <t>-32.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-32,59  %</t>
+          <t>81.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70,26  %</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,45  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2028,27 +2028,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52  %</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2  %</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-42  %</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79  %</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9  %</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2340,27 +2340,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10,2  %</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,1  %</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14,5  %</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11,5  %</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16,3  %</t>
+          <t>16.3</t>
         </is>
       </c>
     </row>
@@ -2375,27 +2375,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,3  %</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17,3  %</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9,4  %</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5,7  %</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11,1  %</t>
+          <t>11.1</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2410,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,9  %</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26,9  %</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12,8  %</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11,2  %</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18,7  %</t>
+          <t>18.7</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2757,27 +2757,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2792,27 +2792,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2827,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-178.3</t>
+          <t>-170.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2913,27 +2913,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1,42  %</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42,46  %</t>
+          <t>42.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8,44  %</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,05  %</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15,84  %</t>
+          <t>15.84</t>
         </is>
       </c>
     </row>
@@ -2948,27 +2948,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,77  %</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>237,95  %</t>
+          <t>237.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-34,75  %</t>
+          <t>-34.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-16,92  %</t>
+          <t>-16.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>64,10  %</t>
+          <t>64.10</t>
         </is>
       </c>
     </row>
@@ -2983,27 +2983,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-12  %</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>332  %</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-48  %</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-9  %</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94  %</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>35,3  %</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51,4  %</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31,0  %</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>35,4  %</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>37,4  %</t>
+          <t>37.4</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3330,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28,1  %</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46,3  %</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24,6  %</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29,4  %</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31,3  %</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -3365,27 +3365,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14,8  %</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35,0  %</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18,5  %</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22,0  %</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24,3  %</t>
+          <t>24.3</t>
         </is>
       </c>
     </row>
@@ -3451,27 +3451,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -3486,27 +3486,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -3521,27 +3521,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -3642,27 +3642,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5,87  %</t>
+          <t>-5.87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72,36  %</t>
+          <t>72.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20,39  %</t>
+          <t>-20.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,06  %</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5,73  %</t>
+          <t>5.73</t>
         </is>
       </c>
     </row>
@@ -3677,27 +3677,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3,50  %</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151,17  %</t>
+          <t>151.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-51,96  %</t>
+          <t>-51.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20,01  %</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11,54  %</t>
+          <t>11.54</t>
         </is>
       </c>
     </row>
@@ -3712,27 +3712,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36  %</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>304  %</t>
+          <t>304</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-58  %</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25  %</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17  %</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3798,27 +3798,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>58,0  %</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50,7  %</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36,3  %</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>45,1  %</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>46,6  %</t>
+          <t>46.6</t>
         </is>
       </c>
     </row>
@@ -3833,27 +3833,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50,1  %</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41,8  %</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6,0  %</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37,5  %</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>39,4  %</t>
+          <t>39.4</t>
         </is>
       </c>
     </row>
@@ -3868,27 +3868,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>38,3  %</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32,1  %</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25,7  %</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25,4  %</t>
+          <t>25.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28,1  %</t>
+          <t>28.1</t>
         </is>
       </c>
     </row>
@@ -3954,27 +3954,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -4024,27 +4024,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -4059,27 +4059,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -4145,27 +4145,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42,56  %</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,63  %</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9,79  %</t>
+          <t>-9.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47,95  %</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9,22  %</t>
+          <t>9.22</t>
         </is>
       </c>
     </row>
@@ -4180,27 +4180,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72,68  %</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-10,32  %</t>
+          <t>-10.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-35,34  %</t>
+          <t>-35.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>83,90  %</t>
+          <t>83.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,71  %</t>
+          <t>12.71</t>
         </is>
       </c>
     </row>
@@ -4215,27 +4215,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>81  %</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-14  %</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-28  %</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46  %</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20  %</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -4527,27 +4527,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23,3  %</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36,1  %</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23,4  %</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25,3  %</t>
+          <t>25.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26,5  %</t>
+          <t>26.5</t>
         </is>
       </c>
     </row>
@@ -4562,27 +4562,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,7  %</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31,6  %</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17,1  %</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17,9  %</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18,4  %</t>
+          <t>18.4</t>
         </is>
       </c>
     </row>
@@ -4597,27 +4597,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9,4  %</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26,3  %</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13,0  %</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13,1  %</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14,2  %</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -4683,27 +4683,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0.7</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4718,27 +4718,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -4753,27 +4753,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -4874,27 +4874,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5,54  %</t>
+          <t>-5.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88,84  %</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-25,36  %</t>
+          <t>-25.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11,86  %</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7,14  %</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -4909,27 +4909,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-7,21  %</t>
+          <t>-7.21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>192,56  %</t>
+          <t>192.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-51,67  %</t>
+          <t>-51.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20,77  %</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12,42  %</t>
+          <t>12.42</t>
         </is>
       </c>
     </row>
@@ -4944,27 +4944,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-21  %</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>426  %</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-63  %</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12  %</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16  %</t>
+          <t>16</t>
         </is>
       </c>
     </row>
